--- a/biology/Histoire de la zoologie et de la botanique/James_Sowerby/James_Sowerby.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Sowerby/James_Sowerby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Sowerby est un naturaliste et illustrateur, né le 21 mars 1757 à Lambeth en Londres et mort le 25 octobre 1822 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de John et d'Arabella Sowerby, une ancienne famille du Yorkshire. Il se marie en 1786 avec Anne Brettingham De Carle, union dont il aura trois fils : James De Carle Sowerby (1787-1871), George Brettingham Sowerby I (1788-1854) et Charles Edward Sowerby (1795-1842), tous trois naturalistes.
 Il étudie l'art à la Royal Academy de Londres et travaille avec William Curtis (1746-1799) sur la Flora londinensis qu'il illustre. Il réalise également des illustrations pour Charles Louis L'Héritier de Brutelle (1746-1800) et pour le Botanical Magazine.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1804-1817 : British mineralogy; or, Coloured figures intended to elucidate the mineralogy of Great Britain (R. Taylor and co., Londres) - Exemplaire numérique sur Internet Archive : volume 1 et volume 2.</t>
         </is>
